--- a/templates/costs_data.xlsx
+++ b/templates/costs_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\studies\simple_use_case\user_interface\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F56B4A-3906-49F7-A7A5-A3EA09CB6A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420973B2-D7C2-4F41-BA91-C2D673FD2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="10050" windowWidth="13950" windowHeight="7065" activeTab="2" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="9" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Content</t>
   </si>
@@ -253,6 +253,24 @@
   </si>
   <si>
     <t>transformer</t>
+  </si>
+  <si>
+    <t>CO2 emission</t>
+  </si>
+  <si>
+    <t>t/MWh</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Coal</t>
   </si>
 </sst>
 </file>
@@ -732,7 +750,7 @@
       </c>
       <c r="B9">
         <f t="shared" ref="B9:B13" ca="1" si="0">COUNT(INDIRECT(A9&amp;"!C:C"))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT(A9&amp;"!C1")</f>
@@ -933,15 +951,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84554D6-D3D3-4F22-9429-754914DFF8CD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -954,8 +972,11 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -968,8 +989,11 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -983,19 +1007,79 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/templates/costs_data.xlsx
+++ b/templates/costs_data.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420973B2-D7C2-4F41-BA91-C2D673FD2542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC143F2-65FF-4ED6-A7E7-690286AE6EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15915" windowHeight="8400" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="9" r:id="rId1"/>
     <sheet name="load" sheetId="2" r:id="rId2"/>
     <sheet name="gen" sheetId="1" r:id="rId3"/>
-    <sheet name="ac_line" sheetId="3" r:id="rId4"/>
-    <sheet name="dc_line" sheetId="4" r:id="rId5"/>
-    <sheet name="conv" sheetId="6" r:id="rId6"/>
-    <sheet name="transformer" sheetId="8" r:id="rId7"/>
+    <sheet name="gen_res" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -64,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Content</t>
   </si>
@@ -141,120 +138,18 @@
     <t>Cost per curtailed energy (available energy which is not used)</t>
   </si>
   <si>
-    <t>CAPEX</t>
-  </si>
-  <si>
-    <t>OPEX fix</t>
-  </si>
-  <si>
-    <t>lifetime</t>
-  </si>
-  <si>
-    <t>discount rate</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>%/y</t>
-  </si>
-  <si>
-    <t>Type used in the grid model input file</t>
-  </si>
-  <si>
-    <t>Cost model for the AC cable CAPEX.</t>
-  </si>
-  <si>
-    <t>Cost model for the AC cable OPEX (independent of the transported energy).</t>
-  </si>
-  <si>
-    <t>Lifetime of the AC cable (used to annualize the CAPEX)</t>
-  </si>
-  <si>
-    <t>Cost model for the DC cable CAPEX.</t>
-  </si>
-  <si>
-    <t>Cost model for the DC cable OPEX (independent of the transported energy).</t>
-  </si>
-  <si>
-    <t>Lifetime of the DC cable (used to annualize the CAPEX)</t>
-  </si>
-  <si>
-    <t>Cost model for the converter CAPEX.</t>
-  </si>
-  <si>
-    <t>Cost model for the converter OPEX (independent of the transported energy).</t>
-  </si>
-  <si>
-    <t>Lifetime of the converter (used to annualize the CAPEX)</t>
-  </si>
-  <si>
-    <t>Cost model for the transformer CAPEX.</t>
-  </si>
-  <si>
-    <t>Cost model for the transformer OPEX (independent of the transported energy).</t>
-  </si>
-  <si>
-    <t>Lifetime of the transformer (used to annualize the CAPEX)</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
     <t>Gas</t>
   </si>
   <si>
-    <t>k€/km</t>
-  </si>
-  <si>
-    <t>k€/km/y</t>
-  </si>
-  <si>
-    <t>Discount rate for the AC cable (used to annualize the CAPEX). 0.04 means 4%/y.</t>
-  </si>
-  <si>
-    <t>Discount rate for the DC cable (used to annualize the CAPEX). 0.04 means 4%/y.</t>
-  </si>
-  <si>
-    <t>Discount rate for the converter (used to annualize the CAPEX). 0.04 means 4%/y.</t>
-  </si>
-  <si>
-    <t>Discount rate for the transformer (used to annualize the CAPEX). 0.04 means 4%/y.</t>
-  </si>
-  <si>
-    <t>M€</t>
-  </si>
-  <si>
-    <t>M€/y</t>
-  </si>
-  <si>
-    <t>MMC_1GW</t>
-  </si>
-  <si>
-    <t>OHL_Al_400kV_2x500mm2</t>
-  </si>
-  <si>
-    <t>Cable_Cu_320kV_800mm2</t>
-  </si>
-  <si>
     <t>load</t>
   </si>
   <si>
     <t>gen</t>
   </si>
   <si>
-    <t>ac_line</t>
-  </si>
-  <si>
-    <t>dc_line</t>
-  </si>
-  <si>
-    <t>conv</t>
-  </si>
-  <si>
-    <t>transformer</t>
-  </si>
-  <si>
     <t>CO2 emission</t>
   </si>
   <si>
@@ -271,6 +166,12 @@
   </si>
   <si>
     <t>Coal</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>gen_res</t>
   </si>
 </sst>
 </file>
@@ -663,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E394EDA-3963-43D7-AD50-8C9E7DB93215}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +626,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <f ca="1">COUNT(INDIRECT(A8&amp;"!C:C"))</f>
@@ -746,11 +647,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B13" ca="1" si="0">COUNT(INDIRECT(A9&amp;"!C:C"))</f>
-        <v>5</v>
+        <f t="shared" ref="B9:B10" ca="1" si="0">COUNT(INDIRECT(A9&amp;"!C:C"))</f>
+        <v>4</v>
       </c>
       <c r="C9" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDIRECT(A9&amp;"!C1")</f>
@@ -758,107 +659,20 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDIRECT(A9&amp;"!D1")</f>
-        <v>curtailment cost</v>
+        <v>CO2 emission</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDIRECT(A10&amp;"!C1")</f>
-        <v>CAPEX</v>
-      </c>
-      <c r="D10" t="str" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">INDIRECT(A10&amp;"!D1")</f>
-        <v>OPEX fix</v>
-      </c>
-      <c r="E10" t="str" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">INDIRECT(A10&amp;"!E1")</f>
-        <v>lifetime</v>
-      </c>
-      <c r="F10" t="str" cm="1">
-        <f t="array" aca="1" ref="F10" ca="1">INDIRECT(A10&amp;"!F1")</f>
-        <v>discount rate</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11" t="str" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">INDIRECT(A11&amp;"!C1")</f>
-        <v>CAPEX</v>
-      </c>
-      <c r="D11" t="str" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">INDIRECT(A11&amp;"!D1")</f>
-        <v>OPEX fix</v>
-      </c>
-      <c r="E11" t="str" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">INDIRECT(A11&amp;"!E1")</f>
-        <v>lifetime</v>
-      </c>
-      <c r="F11" t="str" cm="1">
-        <f t="array" aca="1" ref="F11" ca="1">INDIRECT(A11&amp;"!F1")</f>
-        <v>discount rate</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" t="str" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">INDIRECT(A12&amp;"!C1")</f>
-        <v>CAPEX</v>
-      </c>
-      <c r="D12" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">INDIRECT(A12&amp;"!D1")</f>
-        <v>OPEX fix</v>
-      </c>
-      <c r="E12" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">INDIRECT(A12&amp;"!E1")</f>
-        <v>lifetime</v>
-      </c>
-      <c r="F12" t="str" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">INDIRECT(A12&amp;"!F1")</f>
-        <v>discount rate</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" t="str" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">INDIRECT(A13&amp;"!C1")</f>
-        <v>CAPEX</v>
-      </c>
-      <c r="D13" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">INDIRECT(A13&amp;"!D1")</f>
-        <v>OPEX fix</v>
-      </c>
-      <c r="E13" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">INDIRECT(A13&amp;"!E1")</f>
-        <v>lifetime</v>
-      </c>
-      <c r="F13" t="str" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">INDIRECT(A13&amp;"!F1")</f>
-        <v>discount rate</v>
+        <v>curtailment cost</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +746,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>3000</v>
@@ -951,15 +765,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84554D6-D3D3-4F22-9429-754914DFF8CD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -970,13 +784,10 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -987,13 +798,10 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1003,78 +811,49 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1084,16 +863,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3F783-0E85-4D87-B4F5-59C485B9EADC}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F08EDC-A420-44AE-9D74-5C9D28AD649F}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1101,19 +880,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1121,316 +891,39 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
       <c r="C4">
-        <v>500</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4">
-        <v>0.04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC41CEF-3F39-44ED-97E0-2E32E766EF7A}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>60</v>
-      </c>
-      <c r="F4">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24A61C9-BE98-4308-A22E-A5F77C928B7D}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>0.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D619C8-7E89-425E-BFBE-7BE4B7B8FFB1}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/templates/costs_data.xlsx
+++ b/templates/costs_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.barla\Documents\Local_codes\HVDCWISE_TEA.jl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC143F2-65FF-4ED6-A7E7-690286AE6EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C159A5-3E7E-498A-BC5B-48771D6BBBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15915" windowHeight="8400" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
+    <workbookView xWindow="555" yWindow="525" windowWidth="19125" windowHeight="10035" activeTab="2" xr2:uid="{C57834E6-C588-4116-B15D-7ADB3B8705E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="9" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Content</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>gen_res</t>
+  </si>
+  <si>
+    <t>CO2 emission factor</t>
   </si>
 </sst>
 </file>
@@ -566,48 +569,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E394EDA-3963-43D7-AD50-8C9E7DB93215}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.26953125" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -624,7 +627,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -645,7 +648,7 @@
         <v>shifting cost</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -662,7 +665,7 @@
         <v>CO2 emission</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -691,9 +694,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -727,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -744,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -767,13 +770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84554D6-D3D3-4F22-9429-754914DFF8CD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -787,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -801,7 +804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -811,8 +814,11 @@
       <c r="C3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -823,7 +829,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -834,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -845,7 +851,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -870,9 +876,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -883,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -894,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -905,7 +911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -928,6 +934,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576" xsi:nil="true"/>
@@ -937,15 +952,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,20 +1196,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03DB4CE-97CD-434A-A4E8-8E2C49B54441}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9621E5DA-E1D5-44F5-8BAD-E8A3610F6F90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="37bcdbbe-1b84-46f8-a2e4-bedf5bd24576"/>
     <ds:schemaRef ds:uri="e2fe3da4-e7b1-4e71-a513-56b717f56f6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B03DB4CE-97CD-434A-A4E8-8E2C49B54441}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
